--- a/控制板_导航板通讯协议2.7_release.xlsx
+++ b/控制板_导航板通讯协议2.7_release.xlsx
@@ -5,11 +5,11 @@
   <workbookPr date1904="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RGX\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - nav-motion通讯协议2.0" sheetId="1" r:id="rId1"/>
@@ -59,91 +59,6 @@
     <t>通信格式</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>＊串口参数：波特率</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-115200 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>数据位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-8 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>停止位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>校验位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>-N -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>＊十六进制数据传输 -＊帧长度及数据内容传输时高字节在前</t>
-    </r>
-  </si>
-  <si>
     <t>header</t>
   </si>
   <si>
@@ -207,26 +122,6 @@
   </si>
   <si>
     <t>校验位</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>length+data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>部分异或校验</t>
-    </r>
   </si>
   <si>
     <t>end</t>
@@ -3494,6 +3389,101 @@
   </si>
   <si>
     <t>开始位</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>＊串口参数：波特率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-115200 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>数据位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>停止位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>校验位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>-N +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>＊十六进制数据传输 +＊帧长度及数据内容传输时高字节在前</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>length+data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>部分异或校验</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3918,21 +3908,21 @@
   </sheetPr>
   <dimension ref="A1:IV81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" style="1"/>
-    <col min="2" max="2" width="18.19921875" style="1"/>
-    <col min="3" max="3" width="20.796875" style="1"/>
-    <col min="4" max="4" width="31.8984375" style="1"/>
-    <col min="5" max="5" width="32.296875" style="1"/>
-    <col min="6" max="256" width="14.59765625" style="1"/>
+    <col min="1" max="1" width="11.109375" style="1"/>
+    <col min="2" max="2" width="18.21875" style="1"/>
+    <col min="3" max="3" width="20.77734375" style="1"/>
+    <col min="4" max="4" width="31.88671875" style="1"/>
+    <col min="5" max="5" width="32.33203125" style="1"/>
+    <col min="6" max="256" width="14.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31" customHeight="1">
+    <row r="1" spans="1:8" ht="31.05" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3944,7 +3934,7 @@
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:8" ht="22.4" customHeight="1">
+    <row r="2" spans="1:8" ht="22.35" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -3958,7 +3948,7 @@
     </row>
     <row r="3" spans="1:8" ht="50.4" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -3968,69 +3958,69 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" ht="22.4" customHeight="1">
+    <row r="4" spans="1:8" ht="22.35" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="22.4" customHeight="1">
+    <row r="5" spans="1:8" ht="22.35" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="22.4" customHeight="1">
+    <row r="6" spans="1:8" ht="22.35" customHeight="1">
       <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="22.4" customHeight="1">
+    <row r="7" spans="1:8" ht="22.35" customHeight="1">
       <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -4038,45 +4028,45 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" ht="22.4" customHeight="1">
+    <row r="8" spans="1:8" ht="22.35" customHeight="1">
       <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="22.4" customHeight="1">
+    <row r="9" spans="1:8" ht="22.35" customHeight="1">
       <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="22.4" customHeight="1">
+    <row r="10" spans="1:8" ht="22.35" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -4086,21 +4076,21 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" ht="22.4" customHeight="1">
+    <row r="11" spans="1:8" ht="22.35" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -4108,39 +4098,39 @@
     </row>
     <row r="12" spans="1:8" ht="87" customHeight="1">
       <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="148.4" customHeight="1">
+    <row r="13" spans="1:8" ht="148.35" customHeight="1">
       <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -4148,39 +4138,39 @@
     </row>
     <row r="14" spans="1:8" ht="45" customHeight="1">
       <c r="A14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="31" customHeight="1">
+    <row r="15" spans="1:8" ht="31.05" customHeight="1">
       <c r="A15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -4188,127 +4178,127 @@
     </row>
     <row r="16" spans="1:8" ht="56.4" customHeight="1">
       <c r="A16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="31" customHeight="1">
+    <row r="17" spans="1:8" ht="31.05" customHeight="1">
       <c r="A17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="101" customHeight="1">
+    <row r="18" spans="1:8" ht="100.95" customHeight="1">
       <c r="A18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="29.75" customHeight="1">
+    <row r="19" spans="1:8" ht="29.7" customHeight="1">
       <c r="A19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="29.75" customHeight="1">
+    <row r="20" spans="1:8" ht="29.7" customHeight="1">
       <c r="A20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="29.75" customHeight="1">
+    <row r="21" spans="1:8" ht="29.7" customHeight="1">
       <c r="A21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="31" customHeight="1">
+    <row r="22" spans="1:8" ht="31.05" customHeight="1">
       <c r="A22" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -4318,9 +4308,9 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8" ht="22.4" customHeight="1">
+    <row r="23" spans="1:8" ht="22.35" customHeight="1">
       <c r="A23" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -4330,9 +4320,9 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:8" ht="36.4" customHeight="1">
+    <row r="24" spans="1:8" ht="36.450000000000003" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -4342,41 +4332,41 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:8" ht="22.4" customHeight="1">
+    <row r="25" spans="1:8" ht="22.35" customHeight="1">
       <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="C25" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="22.4" customHeight="1">
+    <row r="26" spans="1:8" ht="22.35" customHeight="1">
       <c r="A26" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F26" s="4">
         <v>4</v>
@@ -4384,17 +4374,17 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="31" customHeight="1">
+    <row r="27" spans="1:8" ht="31.05" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" s="4">
         <v>8</v>
@@ -4406,13 +4396,13 @@
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28" s="4">
         <v>10</v>
@@ -4420,17 +4410,17 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="36.4" customHeight="1">
+    <row r="29" spans="1:8" ht="36.450000000000003" customHeight="1">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F29" s="4">
         <v>11</v>
@@ -4438,17 +4428,17 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="36.4" customHeight="1">
+    <row r="30" spans="1:8" ht="36.450000000000003" customHeight="1">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F30" s="4">
         <v>15</v>
@@ -4460,13 +4450,13 @@
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F31" s="4">
         <v>19</v>
@@ -4474,17 +4464,17 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" ht="64.400000000000006" customHeight="1">
+    <row r="32" spans="1:8" ht="64.349999999999994" customHeight="1">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F32" s="4">
         <v>23</v>
@@ -4492,17 +4482,17 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" ht="22.4" customHeight="1">
+    <row r="33" spans="1:8" ht="22.35" customHeight="1">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F33" s="4">
         <v>24</v>
@@ -4510,17 +4500,17 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" ht="22.4" customHeight="1">
+    <row r="34" spans="1:8" ht="22.35" customHeight="1">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F34" s="4">
         <v>26</v>
@@ -4528,17 +4518,17 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8" ht="22.4" customHeight="1">
+    <row r="35" spans="1:8" ht="22.35" customHeight="1">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F35" s="4">
         <v>28</v>
@@ -4546,17 +4536,17 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8" ht="22.4" customHeight="1">
+    <row r="36" spans="1:8" ht="22.35" customHeight="1">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F36" s="4">
         <v>30</v>
@@ -4564,17 +4554,17 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" ht="22.4" customHeight="1">
+    <row r="37" spans="1:8" ht="22.35" customHeight="1">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F37" s="4">
         <v>32</v>
@@ -4582,17 +4572,17 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8" ht="22.4" customHeight="1">
+    <row r="38" spans="1:8" ht="22.35" customHeight="1">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F38" s="4">
         <v>34</v>
@@ -4600,17 +4590,17 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8" ht="22.4" customHeight="1">
+    <row r="39" spans="1:8" ht="22.35" customHeight="1">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F39" s="4">
         <v>36</v>
@@ -4618,17 +4608,17 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" ht="22.4" customHeight="1">
+    <row r="40" spans="1:8" ht="22.35" customHeight="1">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F40" s="4">
         <v>38</v>
@@ -4636,17 +4626,17 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8" ht="85" customHeight="1">
+    <row r="41" spans="1:8" ht="85.05" customHeight="1">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F41" s="4">
         <v>40</v>
@@ -4654,17 +4644,17 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8" ht="64.400000000000006" customHeight="1">
+    <row r="42" spans="1:8" ht="64.349999999999994" customHeight="1">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F42" s="4">
         <v>41</v>
@@ -4672,17 +4662,17 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" ht="36.4" customHeight="1">
+    <row r="43" spans="1:8" ht="36.450000000000003" customHeight="1">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F43" s="4">
         <v>42</v>
@@ -4690,17 +4680,17 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8" ht="22.4" customHeight="1">
+    <row r="44" spans="1:8" ht="22.35" customHeight="1">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F44" s="4">
         <v>43</v>
@@ -4708,17 +4698,17 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8" ht="36.4" customHeight="1">
+    <row r="45" spans="1:8" ht="36.450000000000003" customHeight="1">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F45" s="4">
         <v>44</v>
@@ -4726,17 +4716,17 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8" ht="127" customHeight="1">
+    <row r="46" spans="1:8" ht="127.05" customHeight="1">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F46" s="4">
         <v>45</v>
@@ -4744,17 +4734,17 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8" ht="22.4" customHeight="1">
+    <row r="47" spans="1:8" ht="22.35" customHeight="1">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F47" s="4">
         <v>46</v>
@@ -4762,17 +4752,17 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" ht="22.4" customHeight="1">
+    <row r="48" spans="1:8" ht="22.35" customHeight="1">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F48" s="4">
         <v>48</v>
@@ -4780,17 +4770,17 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8" ht="22.4" customHeight="1">
+    <row r="49" spans="1:8" ht="22.35" customHeight="1">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F49" s="4">
         <v>50</v>
@@ -4798,17 +4788,17 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8" ht="22.4" customHeight="1">
+    <row r="50" spans="1:8" ht="22.35" customHeight="1">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F50" s="4">
         <v>52</v>
@@ -4816,17 +4806,17 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8" ht="22.4" customHeight="1">
+    <row r="51" spans="1:8" ht="22.35" customHeight="1">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F51" s="4">
         <v>54</v>
@@ -4834,17 +4824,17 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:8" ht="22.4" customHeight="1">
+    <row r="52" spans="1:8" ht="22.35" customHeight="1">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F52" s="4">
         <v>56</v>
@@ -4856,13 +4846,13 @@
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F53" s="4">
         <v>58</v>
@@ -4870,17 +4860,17 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:8" ht="22.4" customHeight="1">
+    <row r="54" spans="1:8" ht="22.35" customHeight="1">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F54" s="4">
         <v>59</v>
@@ -4888,17 +4878,17 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8" ht="22.4" customHeight="1">
+    <row r="55" spans="1:8" ht="22.35" customHeight="1">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F55" s="4">
         <v>60</v>
@@ -4906,17 +4896,17 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8" ht="17" customHeight="1">
+    <row r="56" spans="1:8" ht="16.95" customHeight="1">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F56" s="4">
         <v>61</v>
@@ -4928,13 +4918,13 @@
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F57" s="4">
         <v>62</v>
@@ -4946,13 +4936,13 @@
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F58" s="4">
         <v>63</v>
@@ -4964,13 +4954,13 @@
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F59" s="4">
         <v>64</v>
@@ -4982,13 +4972,13 @@
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F60" s="4">
         <v>65</v>
@@ -4996,17 +4986,17 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:8" ht="22.4" customHeight="1">
+    <row r="61" spans="1:8" ht="22.35" customHeight="1">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F61" s="4">
         <v>66</v>
@@ -5014,17 +5004,17 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8" ht="22.4" customHeight="1">
+    <row r="62" spans="1:8" ht="22.35" customHeight="1">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F62" s="4">
         <v>67</v>
@@ -5032,17 +5022,17 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="1:8" ht="22.4" customHeight="1">
+    <row r="63" spans="1:8" ht="22.35" customHeight="1">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F63" s="4">
         <v>68</v>
@@ -5050,17 +5040,17 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:8" ht="22.4" customHeight="1">
+    <row r="64" spans="1:8" ht="22.35" customHeight="1">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F64" s="4">
         <v>69</v>
@@ -5068,17 +5058,17 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8" ht="22.4" customHeight="1">
+    <row r="65" spans="1:8" ht="22.35" customHeight="1">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F65" s="4">
         <v>70</v>
@@ -5086,17 +5076,17 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" ht="22.4" customHeight="1">
+    <row r="66" spans="1:8" ht="22.35" customHeight="1">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F66" s="4">
         <v>71</v>
@@ -5104,17 +5094,17 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8" ht="22.4" customHeight="1">
+    <row r="67" spans="1:8" ht="22.35" customHeight="1">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F67" s="4">
         <v>72</v>
@@ -5122,17 +5112,17 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" ht="22.4" customHeight="1">
+    <row r="68" spans="1:8" ht="22.35" customHeight="1">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F68" s="4">
         <v>73</v>
@@ -5140,17 +5130,17 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" ht="22.4" customHeight="1">
+    <row r="69" spans="1:8" ht="22.35" customHeight="1">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F69" s="4">
         <v>74</v>
@@ -5158,17 +5148,17 @@
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:8" ht="22.4" customHeight="1">
+    <row r="70" spans="1:8" ht="22.35" customHeight="1">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F70" s="4">
         <v>75</v>
@@ -5176,17 +5166,17 @@
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="1:8" ht="22.4" customHeight="1">
+    <row r="71" spans="1:8" ht="22.35" customHeight="1">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F71" s="4">
         <v>76</v>
@@ -5194,17 +5184,17 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="1:8" ht="22.4" customHeight="1">
+    <row r="72" spans="1:8" ht="22.35" customHeight="1">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F72" s="4">
         <v>77</v>
@@ -5212,17 +5202,17 @@
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="1:8" ht="22.4" customHeight="1">
+    <row r="73" spans="1:8" ht="22.35" customHeight="1">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F73" s="4">
         <v>78</v>
@@ -5230,7 +5220,7 @@
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="1:8" ht="22.4" customHeight="1">
+    <row r="74" spans="1:8" ht="22.35" customHeight="1">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="3"/>
@@ -5240,7 +5230,7 @@
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="1:8" ht="22.4" customHeight="1">
+    <row r="75" spans="1:8" ht="22.35" customHeight="1">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="3"/>
@@ -5250,9 +5240,9 @@
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="1:8" ht="22.4" customHeight="1">
+    <row r="76" spans="1:8" ht="22.35" customHeight="1">
       <c r="A76" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -5262,12 +5252,12 @@
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" spans="1:8" ht="22.4" customHeight="1">
+    <row r="77" spans="1:8" ht="22.35" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -5276,12 +5266,12 @@
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="1:8" ht="22.4" customHeight="1">
+    <row r="78" spans="1:8" ht="22.35" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -5290,12 +5280,12 @@
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="1:8" ht="22.4" customHeight="1">
+    <row r="79" spans="1:8" ht="22.35" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -5304,12 +5294,12 @@
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="1:8" ht="48.4" customHeight="1">
+    <row r="80" spans="1:8" ht="48.45" customHeight="1">
       <c r="A80" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -5361,19 +5351,19 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" style="1"/>
-    <col min="2" max="2" width="28.19921875" style="1"/>
-    <col min="3" max="3" width="15.5" style="1"/>
-    <col min="4" max="4" width="14.59765625" style="1"/>
-    <col min="5" max="5" width="29.69921875" style="1"/>
-    <col min="6" max="256" width="14.59765625" style="1"/>
+    <col min="1" max="1" width="14.5546875" style="1"/>
+    <col min="2" max="2" width="28.21875" style="1"/>
+    <col min="3" max="3" width="15.44140625" style="1"/>
+    <col min="4" max="4" width="14.5546875" style="1"/>
+    <col min="5" max="5" width="29.6640625" style="1"/>
+    <col min="6" max="256" width="14.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -5382,70 +5372,70 @@
     </row>
     <row r="2" spans="1:5" ht="16.5" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.399999999999999" customHeight="1">
+    </row>
+    <row r="3" spans="1:5" ht="16.350000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D3" s="7">
         <v>41671</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="115" customHeight="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="115.05" customHeight="1">
       <c r="A4" s="4">
         <v>2.1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D4" s="7">
         <v>41730</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17" customHeight="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.95" customHeight="1">
       <c r="A5" s="4">
         <v>2.2000000000000002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D5" s="7">
         <v>41740</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="183" customHeight="1">
@@ -5453,33 +5443,33 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D6" s="7">
         <v>41746</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="31" customHeight="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="31.05" customHeight="1">
       <c r="A7" s="4">
         <v>2.4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D7" s="7">
         <v>41818</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" customHeight="1">
@@ -5487,16 +5477,16 @@
         <v>2.5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D8" s="7">
         <v>41856</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="80.25" customHeight="1">
@@ -5504,16 +5494,16 @@
         <v>2.6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D9" s="9">
         <v>41867</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="99.75" customHeight="1">
@@ -5521,16 +5511,16 @@
         <v>2.7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D10" s="9">
         <v>41884</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.4" customHeight="1">
